--- a/DateBase/orders/Dang Nguyen48_2026-1-10.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-10.xlsx
@@ -778,6 +778,9 @@
       <c r="C41" t="str">
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -839,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010202051012566.55103.57810101010599561051010153040201051055550</v>
+        <v>01010202051012566.55103.578101010105995610510101530402010510555515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-10.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -782,9 +782,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L42"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -842,7 +850,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010202051012566.55103.578101010105995610510101530402010510555515</v>
+        <v>01010202051012566.55103.57810101010599561051010153040201051055551510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-10.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-10.xlsx
@@ -852,6 +852,9 @@
       <c r="G2" t="str">
         <v>01010202051012566.55103.57810101010599561051010153040201051055551510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
